--- a/dls_set/LEA_02/cycle6/3.xlsx
+++ b/dls_set/LEA_02/cycle6/3.xlsx
@@ -209,10 +209,10 @@
         <v>2.4770762920379639</v>
       </c>
       <c r="B13" s="0">
-        <v>0.027836894616484642</v>
+        <v>0.092045493423938751</v>
       </c>
       <c r="C13" s="0">
-        <v>0.08351067453622818</v>
+        <v>0.24352946877479553</v>
       </c>
     </row>
     <row r="14">
@@ -220,10 +220,10 @@
         <v>2.8480358123779297</v>
       </c>
       <c r="B14" s="0">
-        <v>0.13240748643875122</v>
+        <v>0.27538201212882996</v>
       </c>
       <c r="C14" s="0">
-        <v>0.28572231531143188</v>
+        <v>0.72440314292907715</v>
       </c>
     </row>
     <row r="15">
@@ -231,10 +231,10 @@
         <v>3.2745490074157715</v>
       </c>
       <c r="B15" s="0">
-        <v>0.65686023235321045</v>
+        <v>0.89337277412414551</v>
       </c>
       <c r="C15" s="0">
-        <v>0.64530903100967407</v>
+        <v>1.1186583042144775</v>
       </c>
     </row>
     <row r="16">
@@ -242,10 +242,10 @@
         <v>3.7649359703063965</v>
       </c>
       <c r="B16" s="0">
-        <v>2.1888284683227539</v>
+        <v>2.6156282424926758</v>
       </c>
       <c r="C16" s="0">
-        <v>0.97930067777633667</v>
+        <v>0.92864501476287842</v>
       </c>
     </row>
     <row r="17">
@@ -253,10 +253,10 @@
         <v>4.3287615776062012</v>
       </c>
       <c r="B17" s="0">
-        <v>4.379885196685791</v>
+        <v>4.997530460357666</v>
       </c>
       <c r="C17" s="0">
-        <v>1.270964503288269</v>
+        <v>1.0389989614486694</v>
       </c>
     </row>
     <row r="18">
@@ -264,10 +264,10 @@
         <v>4.9770236015319824</v>
       </c>
       <c r="B18" s="0">
-        <v>6.4125461578369141</v>
+        <v>7.1618566513061523</v>
       </c>
       <c r="C18" s="0">
-        <v>1.6149523258209229</v>
+        <v>2.0097074508666992</v>
       </c>
     </row>
     <row r="19">
@@ -275,10 +275,10 @@
         <v>5.7223672866821289</v>
       </c>
       <c r="B19" s="0">
-        <v>7.5191655158996582</v>
+        <v>8.315032958984375</v>
       </c>
       <c r="C19" s="0">
-        <v>2.0727498531341553</v>
+        <v>2.8133106231689453</v>
       </c>
     </row>
     <row r="20">
@@ -286,10 +286,10 @@
         <v>6.57933235168457</v>
       </c>
       <c r="B20" s="0">
-        <v>7.311434268951416</v>
+        <v>8.0716428756713867</v>
       </c>
       <c r="C20" s="0">
-        <v>2.5598845481872559</v>
+        <v>3.0895397663116455</v>
       </c>
     </row>
     <row r="21">
@@ -297,10 +297,10 @@
         <v>7.5646333694458008</v>
       </c>
       <c r="B21" s="0">
-        <v>5.9082174301147461</v>
+        <v>6.575164794921875</v>
       </c>
       <c r="C21" s="0">
-        <v>2.7967839241027832</v>
+        <v>2.9347128868103027</v>
       </c>
     </row>
     <row r="22">
@@ -308,10 +308,10 @@
         <v>8.6974897384643555</v>
       </c>
       <c r="B22" s="0">
-        <v>3.8637120723724365</v>
+        <v>4.4180612564086914</v>
       </c>
       <c r="C22" s="0">
-        <v>2.4723613262176514</v>
+        <v>2.5728747844696045</v>
       </c>
     </row>
     <row r="23">
@@ -319,10 +319,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="0">
-        <v>1.9115816354751587</v>
+        <v>2.3786113262176514</v>
       </c>
       <c r="C23" s="0">
-        <v>1.5636748075485229</v>
+        <v>1.9944329261779785</v>
       </c>
     </row>
     <row r="24">
@@ -330,10 +330,10 @@
         <v>11.497570037841797</v>
       </c>
       <c r="B24" s="0">
-        <v>0.55251926183700562</v>
+        <v>1.0038083791732788</v>
       </c>
       <c r="C24" s="0">
-        <v>0.62052595615386963</v>
+        <v>1.1548430919647217</v>
       </c>
     </row>
     <row r="25">
@@ -341,10 +341,10 @@
         <v>13.21941089630127</v>
       </c>
       <c r="B25" s="0">
-        <v>0.023040402680635452</v>
+        <v>0.27529314160346985</v>
       </c>
       <c r="C25" s="0">
-        <v>0.055656123906373978</v>
+        <v>0.433414101600647</v>
       </c>
     </row>
     <row r="26">
@@ -352,10 +352,10 @@
         <v>15.199110984802246</v>
       </c>
       <c r="B26" s="0">
-        <v>0</v>
+        <v>0.017384422942996025</v>
       </c>
       <c r="C26" s="0">
-        <v>0</v>
+        <v>0.045994862914085388</v>
       </c>
     </row>
     <row r="27">
@@ -396,10 +396,10 @@
         <v>26.560878753662109</v>
       </c>
       <c r="B30" s="0">
-        <v>0</v>
+        <v>0.024346509948372841</v>
       </c>
       <c r="C30" s="0">
-        <v>0</v>
+        <v>0.064414806663990021</v>
       </c>
     </row>
     <row r="31">
@@ -407,10 +407,10 @@
         <v>30.538555145263672</v>
       </c>
       <c r="B31" s="0">
-        <v>0</v>
+        <v>0.064751468598842621</v>
       </c>
       <c r="C31" s="0">
-        <v>0</v>
+        <v>0.17131628096103668</v>
       </c>
     </row>
     <row r="32">
@@ -418,10 +418,10 @@
         <v>35.111915588378906</v>
       </c>
       <c r="B32" s="0">
-        <v>0</v>
+        <v>0.11376496404409409</v>
       </c>
       <c r="C32" s="0">
-        <v>0</v>
+        <v>0.25475242733955383</v>
       </c>
     </row>
     <row r="33">
@@ -429,10 +429,10 @@
         <v>40.370170593261719</v>
       </c>
       <c r="B33" s="0">
-        <v>0</v>
+        <v>0.14818465709686279</v>
       </c>
       <c r="C33" s="0">
-        <v>0</v>
+        <v>0.278164803981781</v>
       </c>
     </row>
     <row r="34">
@@ -440,10 +440,10 @@
         <v>46.415889739990234</v>
       </c>
       <c r="B34" s="0">
-        <v>0</v>
+        <v>0.15036332607269287</v>
       </c>
       <c r="C34" s="0">
-        <v>0</v>
+        <v>0.25680005550384521</v>
       </c>
     </row>
     <row r="35">
@@ -451,10 +451,10 @@
         <v>53.366992950439453</v>
       </c>
       <c r="B35" s="0">
-        <v>0</v>
+        <v>0.1225612685084343</v>
       </c>
       <c r="C35" s="0">
-        <v>0</v>
+        <v>0.23948028683662415</v>
       </c>
     </row>
     <row r="36">
@@ -462,10 +462,10 @@
         <v>61.359073638916016</v>
       </c>
       <c r="B36" s="0">
-        <v>0.00063721818150952458</v>
+        <v>0.085873141884803772</v>
       </c>
       <c r="C36" s="0">
-        <v>0.0019116546027362347</v>
+        <v>0.22322170436382294</v>
       </c>
     </row>
     <row r="37">
@@ -473,10 +473,10 @@
         <v>70.548027038574219</v>
       </c>
       <c r="B37" s="0">
-        <v>0.018925053998827934</v>
+        <v>0.0701429694890976</v>
       </c>
       <c r="C37" s="0">
-        <v>0.037658408284187317</v>
+        <v>0.15945154428482056</v>
       </c>
     </row>
     <row r="38">
@@ -484,10 +484,10 @@
         <v>81.113082885742188</v>
       </c>
       <c r="B38" s="0">
-        <v>0.04974810779094696</v>
+        <v>0.063696332275867462</v>
       </c>
       <c r="C38" s="0">
-        <v>0.099563553929328918</v>
+        <v>0.1088627502322197</v>
       </c>
     </row>
     <row r="39">
@@ -495,10 +495,10 @@
         <v>93.260330200195313</v>
       </c>
       <c r="B39" s="0">
-        <v>0.078532032668590546</v>
+        <v>0.062066059559583664</v>
       </c>
       <c r="C39" s="0">
-        <v>0.15714539587497711</v>
+        <v>0.14194025099277496</v>
       </c>
     </row>
     <row r="40">
@@ -506,10 +506,10 @@
         <v>107.22672271728516</v>
       </c>
       <c r="B40" s="0">
-        <v>0.09644724428653717</v>
+        <v>0.079142086207866669</v>
       </c>
       <c r="C40" s="0">
-        <v>0.18250477313995361</v>
+        <v>0.14739426970481873</v>
       </c>
     </row>
     <row r="41">
@@ -517,10 +517,10 @@
         <v>123.28467559814453</v>
       </c>
       <c r="B41" s="0">
-        <v>0.098827920854091644</v>
+        <v>0.1279418021440506</v>
       </c>
       <c r="C41" s="0">
-        <v>0.16979831457138062</v>
+        <v>0.16334426403045654</v>
       </c>
     </row>
     <row r="42">
@@ -528,10 +528,10 @@
         <v>141.74742126464844</v>
       </c>
       <c r="B42" s="0">
-        <v>0.087945990264415741</v>
+        <v>0.1684214174747467</v>
       </c>
       <c r="C42" s="0">
-        <v>0.13909265398979187</v>
+        <v>0.27095073461532593</v>
       </c>
     </row>
     <row r="43">
@@ -539,10 +539,10 @@
         <v>162.97508239746094</v>
       </c>
       <c r="B43" s="0">
-        <v>0.071919485926628113</v>
+        <v>0.17201359570026398</v>
       </c>
       <c r="C43" s="0">
-        <v>0.12227671593427658</v>
+        <v>0.32843098044395447</v>
       </c>
     </row>
     <row r="44">
@@ -550,10 +550,10 @@
         <v>187.38174438476563</v>
       </c>
       <c r="B44" s="0">
-        <v>0.059818651527166367</v>
+        <v>0.13324034214019775</v>
       </c>
       <c r="C44" s="0">
-        <v>0.12200398743152618</v>
+        <v>0.27869126200675964</v>
       </c>
     </row>
     <row r="45">
@@ -561,10 +561,10 @@
         <v>215.44346618652344</v>
       </c>
       <c r="B45" s="0">
-        <v>0.072721004486083984</v>
+        <v>0.066950529813766479</v>
       </c>
       <c r="C45" s="0">
-        <v>0.12177509814500809</v>
+        <v>0.16580019891262054</v>
       </c>
     </row>
     <row r="46">
@@ -572,10 +572,10 @@
         <v>247.7076416015625</v>
       </c>
       <c r="B46" s="0">
-        <v>0.090582072734832764</v>
+        <v>0.019646428525447845</v>
       </c>
       <c r="C46" s="0">
-        <v>0.15343615412712097</v>
+        <v>0.051979564130306244</v>
       </c>
     </row>
     <row r="47">
@@ -583,10 +583,10 @@
         <v>284.8035888671875</v>
       </c>
       <c r="B47" s="0">
-        <v>0.093890540301799774</v>
+        <v>0.0035715179983526468</v>
       </c>
       <c r="C47" s="0">
-        <v>0.16522037982940674</v>
+        <v>0.0094493487849831581</v>
       </c>
     </row>
     <row r="48">
@@ -594,10 +594,10 @@
         <v>327.45492553710938</v>
       </c>
       <c r="B48" s="0">
-        <v>0.077684998512268066</v>
+        <v>0.028116539120674133</v>
       </c>
       <c r="C48" s="0">
-        <v>0.12494383752346039</v>
+        <v>0.074389368295669556</v>
       </c>
     </row>
     <row r="49">
@@ -605,10 +605,10 @@
         <v>376.49356079101563</v>
       </c>
       <c r="B49" s="0">
-        <v>0.06807301938533783</v>
+        <v>0.080853044986724854</v>
       </c>
       <c r="C49" s="0">
-        <v>0.087429381906986237</v>
+        <v>0.17834228277206421</v>
       </c>
     </row>
     <row r="50">
@@ -616,10 +616,10 @@
         <v>432.87612915039063</v>
       </c>
       <c r="B50" s="0">
-        <v>0.091078594326972961</v>
+        <v>0.14877079427242279</v>
       </c>
       <c r="C50" s="0">
-        <v>0.12341929972171783</v>
+        <v>0.28770923614501953</v>
       </c>
     </row>
     <row r="51">
@@ -627,10 +627,10 @@
         <v>497.70233154296875</v>
       </c>
       <c r="B51" s="0">
-        <v>0.15429963171482086</v>
+        <v>0.19853869080543518</v>
       </c>
       <c r="C51" s="0">
-        <v>0.18441890180110931</v>
+        <v>0.36019706726074219</v>
       </c>
     </row>
     <row r="52">
@@ -638,10 +638,10 @@
         <v>572.23681640625</v>
       </c>
       <c r="B52" s="0">
-        <v>0.26738524436950684</v>
+        <v>0.23839394748210907</v>
       </c>
       <c r="C52" s="0">
-        <v>0.29051482677459717</v>
+        <v>0.347348690032959</v>
       </c>
     </row>
     <row r="53">
@@ -649,10 +649,10 @@
         <v>657.9332275390625</v>
       </c>
       <c r="B53" s="0">
-        <v>0.468199759721756</v>
+        <v>0.30619516968727112</v>
       </c>
       <c r="C53" s="0">
-        <v>0.56376487016677856</v>
+        <v>0.41468191146850586</v>
       </c>
     </row>
     <row r="54">
@@ -660,10 +660,10 @@
         <v>756.46337890625</v>
       </c>
       <c r="B54" s="0">
-        <v>0.69852256774902344</v>
+        <v>0.35998058319091797</v>
       </c>
       <c r="C54" s="0">
-        <v>1.0260230302810669</v>
+        <v>0.69348597526550293</v>
       </c>
     </row>
     <row r="55">
@@ -671,10 +671,10 @@
         <v>869.74896240234375</v>
       </c>
       <c r="B55" s="0">
-        <v>0.89222139120101929</v>
+        <v>0.37021887302398682</v>
       </c>
       <c r="C55" s="0">
-        <v>1.4151955842971802</v>
+        <v>0.86900711059570313</v>
       </c>
     </row>
     <row r="56">
@@ -682,10 +682,10 @@
         <v>1000</v>
       </c>
       <c r="B56" s="0">
-        <v>0.95971143245697021</v>
+        <v>0.35516220331192017</v>
       </c>
       <c r="C56" s="0">
-        <v>1.5485849380493164</v>
+        <v>0.78357130289077759</v>
       </c>
     </row>
     <row r="57">
@@ -693,10 +693,10 @@
         <v>1149.7569580078125</v>
       </c>
       <c r="B57" s="0">
-        <v>0.86370658874511719</v>
+        <v>0.33036574721336365</v>
       </c>
       <c r="C57" s="0">
-        <v>1.3700376749038696</v>
+        <v>0.54024893045425415</v>
       </c>
     </row>
     <row r="58">
@@ -704,10 +704,10 @@
         <v>1321.941162109375</v>
       </c>
       <c r="B58" s="0">
-        <v>0.63889336585998535</v>
+        <v>0.41762274503707886</v>
       </c>
       <c r="C58" s="0">
-        <v>0.96757429838180542</v>
+        <v>0.46683052182197571</v>
       </c>
     </row>
     <row r="59">
@@ -715,10 +715,10 @@
         <v>1519.9110107421875</v>
       </c>
       <c r="B59" s="0">
-        <v>0.3753926157951355</v>
+        <v>0.632537305355072</v>
       </c>
       <c r="C59" s="0">
-        <v>0.54983139038085938</v>
+        <v>0.86840558052062988</v>
       </c>
     </row>
     <row r="60">
@@ -726,10 +726,10 @@
         <v>1747.5283203125</v>
       </c>
       <c r="B60" s="0">
-        <v>0.16941200196743011</v>
+        <v>0.8666996955871582</v>
       </c>
       <c r="C60" s="0">
-        <v>0.30489355325698853</v>
+        <v>1.3545219898223877</v>
       </c>
     </row>
     <row r="61">
@@ -737,10 +737,10 @@
         <v>2009.23291015625</v>
       </c>
       <c r="B61" s="0">
-        <v>0.068256467580795288</v>
+        <v>0.94491147994995117</v>
       </c>
       <c r="C61" s="0">
-        <v>0.13544662296772003</v>
+        <v>1.681327223777771</v>
       </c>
     </row>
     <row r="62">
@@ -748,10 +748,10 @@
         <v>2310.129638671875</v>
       </c>
       <c r="B62" s="0">
-        <v>0.013275946490466595</v>
+        <v>0.83280318975448608</v>
       </c>
       <c r="C62" s="0">
-        <v>0.039827838540077209</v>
+        <v>1.6705116033554077</v>
       </c>
     </row>
     <row r="63">
@@ -759,10 +759,10 @@
         <v>2656.087890625</v>
       </c>
       <c r="B63" s="0">
-        <v>0.0011561777209863067</v>
+        <v>0.59954154491424561</v>
       </c>
       <c r="C63" s="0">
-        <v>0.0034685335122048855</v>
+        <v>1.296189546585083</v>
       </c>
     </row>
     <row r="64">
@@ -770,10 +770,10 @@
         <v>3053.855712890625</v>
       </c>
       <c r="B64" s="0">
-        <v>0</v>
+        <v>0.39407306909561157</v>
       </c>
       <c r="C64" s="0">
-        <v>0</v>
+        <v>0.72886854410171509</v>
       </c>
     </row>
     <row r="65">
@@ -781,10 +781,10 @@
         <v>3511.19189453125</v>
       </c>
       <c r="B65" s="0">
-        <v>0.047194719314575195</v>
+        <v>0.29769939184188843</v>
       </c>
       <c r="C65" s="0">
-        <v>0.14158415794372559</v>
+        <v>0.56754404306411743</v>
       </c>
     </row>
     <row r="66">
@@ -792,10 +792,10 @@
         <v>4037.017333984375</v>
       </c>
       <c r="B66" s="0">
-        <v>0.18934105336666107</v>
+        <v>0.3408207893371582</v>
       </c>
       <c r="C66" s="0">
-        <v>0.50166881084442139</v>
+        <v>0.90172708034515381</v>
       </c>
     </row>
     <row r="67">
@@ -803,10 +803,10 @@
         <v>4641.5888671875</v>
       </c>
       <c r="B67" s="0">
-        <v>0.41034439206123352</v>
+        <v>0.43646791577339172</v>
       </c>
       <c r="C67" s="0">
-        <v>1.0213891267776489</v>
+        <v>1.1426857709884644</v>
       </c>
     </row>
     <row r="68">
@@ -814,10 +814,10 @@
         <v>5336.69921875</v>
       </c>
       <c r="B68" s="0">
-        <v>0.6514098048210144</v>
+        <v>0.73668259382247925</v>
       </c>
       <c r="C68" s="0">
-        <v>1.5531833171844482</v>
+        <v>1.3019261360168457</v>
       </c>
     </row>
     <row r="69">
@@ -825,10 +825,10 @@
         <v>6135.9072265625</v>
       </c>
       <c r="B69" s="0">
-        <v>0.83805733919143677</v>
+        <v>1.1771696805953979</v>
       </c>
       <c r="C69" s="0">
-        <v>1.9268490076065063</v>
+        <v>2.1689536571502686</v>
       </c>
     </row>
     <row r="70">
@@ -836,10 +836,10 @@
         <v>7054.80224609375</v>
       </c>
       <c r="B70" s="0">
-        <v>0.93190854787826538</v>
+        <v>1.568972110748291</v>
       </c>
       <c r="C70" s="0">
-        <v>2.0025866031646729</v>
+        <v>3.4113447666168213</v>
       </c>
     </row>
     <row r="71">
@@ -847,10 +847,10 @@
         <v>8111.30859375</v>
       </c>
       <c r="B71" s="0">
-        <v>0.952328622341156</v>
+        <v>1.7376065254211426</v>
       </c>
       <c r="C71" s="0">
-        <v>1.7344150543212891</v>
+        <v>4.225677490234375</v>
       </c>
     </row>
     <row r="72">
@@ -858,10 +858,10 @@
         <v>9326.033203125</v>
       </c>
       <c r="B72" s="0">
-        <v>0.89536553621292114</v>
+        <v>1.6324841976165771</v>
       </c>
       <c r="C72" s="0">
-        <v>1.2741103172302246</v>
+        <v>4.15089225769043</v>
       </c>
     </row>
   </sheetData>
